--- a/spliced/walkingToRunning/2023-03-27_19-50-05/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-50-05/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.14015007019043</v>
+        <v>-9.328194618225098</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.555113315582275</v>
+        <v>-6.853240489959717</v>
       </c>
       <c r="C2" t="n">
-        <v>2.792672872543335</v>
+        <v>5.245095252990723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2594857215881347</v>
+        <v>-7.405017375946045</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.807053089141846</v>
+        <v>-14.76152610778809</v>
       </c>
       <c r="C3" t="n">
-        <v>8.088808059692383</v>
+        <v>0.4900901317596435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.089113235473633</v>
+        <v>-8.944772720336914</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.850908756256104</v>
+        <v>-6.256664276123047</v>
       </c>
       <c r="C4" t="n">
-        <v>16.61727523803711</v>
+        <v>6.951004505157471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.374373435974121</v>
+        <v>-9.14015007019043</v>
       </c>
       <c r="B5" t="n">
-        <v>6.74084997177124</v>
+        <v>-3.555113315582275</v>
       </c>
       <c r="C5" t="n">
-        <v>8.798618316650391</v>
+        <v>2.792672872543335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-18.19405746459961</v>
+        <v>-0.2594857215881347</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.922885417938232</v>
+        <v>-3.807053089141846</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5517110824585</v>
+        <v>8.088808059692383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-16.09731292724609</v>
+        <v>4.089113235473633</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.246491432189941</v>
+        <v>-6.850908756256104</v>
       </c>
       <c r="C7" t="n">
-        <v>1.230105638504028</v>
+        <v>16.61727523803711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.167733669281006</v>
+        <v>6.374373435974121</v>
       </c>
       <c r="B8" t="n">
-        <v>-27.47990798950196</v>
+        <v>6.74084997177124</v>
       </c>
       <c r="C8" t="n">
-        <v>20.13128471374512</v>
+        <v>8.798618316650391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38.20926666259766</v>
+        <v>-18.19405746459961</v>
       </c>
       <c r="B9" t="n">
-        <v>8.221505165100098</v>
+        <v>-1.922885417938232</v>
       </c>
       <c r="C9" t="n">
-        <v>37.43196487426758</v>
+        <v>11.5517110824585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.185737609863279</v>
+        <v>-16.09731292724609</v>
       </c>
       <c r="B10" t="n">
-        <v>6.29133415222168</v>
+        <v>-5.246491432189941</v>
       </c>
       <c r="C10" t="n">
-        <v>1.174301743507385</v>
+        <v>1.230105638504028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.03300285339355</v>
+        <v>1.167733669281006</v>
       </c>
       <c r="B11" t="n">
-        <v>-27.21039581298828</v>
+        <v>-27.47990798950196</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.327969312667847</v>
+        <v>20.13128471374512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1153392791748046</v>
+        <v>38.20926666259766</v>
       </c>
       <c r="B12" t="n">
-        <v>1.662713766098022</v>
+        <v>8.221505165100098</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.602585792541504</v>
+        <v>37.43196487426758</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-30.58404541015625</v>
+        <v>-9.185737609863279</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.14975070953369</v>
+        <v>6.29133415222168</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.237148284912109</v>
+        <v>1.174301743507385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.598236083984375</v>
+        <v>-21.03300285339355</v>
       </c>
       <c r="B14" t="n">
-        <v>-49.00935745239258</v>
+        <v>-27.21039581298828</v>
       </c>
       <c r="C14" t="n">
-        <v>8.44972038269043</v>
+        <v>-3.327969312667847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.318488121032715</v>
+        <v>-0.1153392791748046</v>
       </c>
       <c r="B15" t="n">
-        <v>9.492542266845703</v>
+        <v>1.662713766098022</v>
       </c>
       <c r="C15" t="n">
-        <v>1.218106150627136</v>
+        <v>-6.602585792541504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-51.58052062988281</v>
+        <v>-30.58404541015625</v>
       </c>
       <c r="B16" t="n">
-        <v>-63.86045837402344</v>
+        <v>-11.14975070953369</v>
       </c>
       <c r="C16" t="n">
-        <v>42.37603759765625</v>
+        <v>-8.237148284912109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.470245361328125</v>
+        <v>7.598236083984375</v>
       </c>
       <c r="B17" t="n">
-        <v>5.231861114501953</v>
+        <v>-49.00935745239258</v>
       </c>
       <c r="C17" t="n">
-        <v>-25.23441886901855</v>
+        <v>8.44972038269043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.50184631347656</v>
+        <v>-6.318488121032715</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.417125701904297</v>
+        <v>9.492542266845703</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.449828147888184</v>
+        <v>1.218106150627136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-21.86991500854492</v>
+        <v>-51.58052062988281</v>
       </c>
       <c r="B19" t="n">
-        <v>-24.83074569702148</v>
+        <v>-63.86045837402344</v>
       </c>
       <c r="C19" t="n">
-        <v>1.575617074966431</v>
+        <v>42.37603759765625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.400870323181152</v>
+        <v>-8.470245361328125</v>
       </c>
       <c r="B20" t="n">
-        <v>13.92329216003418</v>
+        <v>5.231861114501953</v>
       </c>
       <c r="C20" t="n">
-        <v>5.784989833831787</v>
+        <v>-25.23441886901855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-21.50184631347656</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.417125701904297</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.449828147888184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-21.86991500854492</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-24.83074569702148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.575617074966431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.400870323181152</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13.92329216003418</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.784989833831787</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.5669898986816406</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>13.84309577941894</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>9.06630802154541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.273637771606445</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-40.02112579345703</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.01494979858398</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-33.29051208496094</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13.78821468353272</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.866414546966553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-38.59527587890625</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-11.46046161651611</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.89169502258301</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>69.93356323242188</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-70.74887084960938</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44.17119979858398</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-14.73312759399414</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.10027313232422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.143325805664063</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16.71687316894531</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-16.55658340454102</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22.30324172973633</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-58.74892807006836</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-18.46404838562012</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-22.14792823791504</v>
       </c>
     </row>
   </sheetData>
